--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czyskows\Dropbox\Altium\ESP32-S3-DevBoard\Project Outputs for ESP32-S3-DevBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solaj\OneDrive\Desktop\ECE\devboard-JSUCSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1303373-3B93-4BAB-B67D-D2A57C677349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1042D5D-759D-444A-B30A-79945D26156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="10044" xr2:uid="{16A8990B-4A7D-497C-B5FF-D938AD5B8C7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16A8990B-4A7D-497C-B5FF-D938AD5B8C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32-S3-DevBoard_BOM" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +175,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,12 +218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,9 +244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +284,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -376,7 +390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,7 +542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F0F210-A766-483A-BEAE-3AF6F213124B}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -550,7 +566,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
@@ -561,7 +577,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -572,7 +588,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1">
@@ -583,7 +599,7 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
@@ -594,7 +610,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -605,7 +621,7 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1">
@@ -616,7 +632,7 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
@@ -627,7 +643,7 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1">
@@ -638,7 +654,7 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1">
@@ -649,7 +665,7 @@
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1">
@@ -660,7 +676,7 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1">
@@ -671,7 +687,7 @@
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1">
@@ -682,7 +698,7 @@
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1">
@@ -693,7 +709,7 @@
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1">
@@ -704,7 +720,7 @@
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="1">
@@ -715,7 +731,7 @@
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="1">
@@ -726,7 +742,7 @@
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="1">
